--- a/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
+++ b/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:02:37+00:00</t>
+    <t>2024-09-19T15:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
+++ b/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T15:14:04+00:00</t>
+    <t>2024-10-30T13:59:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
+++ b/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:59:05+00:00</t>
+    <t>2024-10-30T13:59:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
+++ b/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T16:11:37+00:00</t>
+    <t>2025-02-06T16:12:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
+++ b/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T16:12:11+00:00</t>
+    <t>2025-02-06T16:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
+++ b/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T12:46:54+00:00</t>
+    <t>2025-02-11T12:48:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
+++ b/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T12:48:58+00:00</t>
+    <t>2025-02-11T12:48:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
+++ b/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T12:48:38+00:00</t>
+    <t>2025-02-11T13:13:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
+++ b/main/ig/StructureDefinition-cdl-bundle-maj-note.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-11T13:13:01+00:00</t>
+    <t>2025-02-11T13:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
